--- a/MainTop/09.02.2025/срочно_ВБ.xlsx
+++ b/MainTop/09.02.2025/срочно_ВБ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\09.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E66EFC8-837B-4CD3-8E8B-6806DFDA1BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815610B-8233-4BC5-9B4B-09320FDDEDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
